--- a/attendance-files/CHW/CHW Attendance.xlsx
+++ b/attendance-files/CHW/CHW Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="152">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>31/07/25</t>
+  </si>
+  <si>
+    <t>14/8/25</t>
+  </si>
+  <si>
+    <t>18/8/25</t>
   </si>
   <si>
     <t>S.No.</t>
@@ -890,8 +896,8 @@
     <xf borderId="17" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -923,14 +929,14 @@
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="19" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1351,10 +1357,18 @@
       <c r="M5" s="26">
         <v>45755.0</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
+      <c r="N5" s="26">
+        <v>45969.0</v>
+      </c>
+      <c r="O5" s="26">
+        <v>45999.0</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>18</v>
+      </c>
       <c r="R5" s="28"/>
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
@@ -1368,67 +1382,67 @@
     </row>
     <row r="6" ht="42.75" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P6" s="30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R6" s="30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T6" s="30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U6" s="30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V6" s="31"/>
       <c r="W6" s="8"/>
@@ -1442,45 +1456,53 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="32">
         <f t="shared" ref="E7:E91" si="1">COUNTIF(G7:U7,"A")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="32">
         <f t="shared" ref="F7:F91" si="2">COUNTIF(G7:U7,"P")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R7" s="37"/>
       <c r="S7" s="37"/>
       <c r="T7" s="37"/>
@@ -1497,10 +1519,10 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="32">
@@ -1509,33 +1531,41 @@
       </c>
       <c r="F8" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R8" s="37"/>
       <c r="S8" s="37"/>
       <c r="T8" s="37"/>
@@ -1552,10 +1582,10 @@
         <v>3.0</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="32">
@@ -1564,33 +1594,41 @@
       </c>
       <c r="F9" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
@@ -1607,10 +1645,10 @@
         <v>4.0</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="32">
@@ -1619,33 +1657,41 @@
       </c>
       <c r="F10" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
@@ -1662,45 +1708,53 @@
         <v>5.0</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
@@ -1717,45 +1771,53 @@
         <v>6.0</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R12" s="37"/>
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
@@ -1772,10 +1834,10 @@
         <v>7.0</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="32">
@@ -1784,33 +1846,41 @@
       </c>
       <c r="F13" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="32"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
       <c r="T13" s="37"/>
@@ -1827,10 +1897,10 @@
         <v>8.0</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="32">
@@ -1839,33 +1909,41 @@
       </c>
       <c r="F14" s="32">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R14" s="37"/>
       <c r="S14" s="37"/>
       <c r="T14" s="37"/>
@@ -1882,45 +1960,53 @@
         <v>9.0</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R15" s="37"/>
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
@@ -1937,45 +2023,53 @@
         <v>10.0</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R16" s="37"/>
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
@@ -1992,45 +2086,53 @@
         <v>11.0</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M17" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R17" s="37"/>
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
@@ -2047,10 +2149,10 @@
         <v>12.0</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="32">
@@ -2059,33 +2161,41 @@
       </c>
       <c r="F18" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M18" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="38"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R18" s="37"/>
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
@@ -2102,10 +2212,10 @@
         <v>13.0</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="32">
@@ -2114,33 +2224,41 @@
       </c>
       <c r="F19" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M19" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="38"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R19" s="37"/>
       <c r="S19" s="37"/>
       <c r="T19" s="37"/>
@@ -2157,45 +2275,53 @@
         <v>14.0</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L20" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R20" s="37"/>
       <c r="S20" s="37"/>
       <c r="T20" s="37"/>
@@ -2212,45 +2338,53 @@
         <v>15.0</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L21" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R21" s="37"/>
       <c r="S21" s="37"/>
       <c r="T21" s="37"/>
@@ -2267,45 +2401,53 @@
         <v>16.0</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K22" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="32"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q22" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="R22" s="37"/>
       <c r="S22" s="37"/>
       <c r="T22" s="37"/>
@@ -2322,45 +2464,53 @@
         <v>17.0</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L23" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M23" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R23" s="37"/>
       <c r="S23" s="37"/>
       <c r="T23" s="37"/>
@@ -2377,45 +2527,53 @@
         <v>18.0</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K24" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L24" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M24" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N24" s="32"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="R24" s="37"/>
       <c r="S24" s="37"/>
       <c r="T24" s="37"/>
@@ -2432,45 +2590,53 @@
         <v>19.0</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L25" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M25" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N25" s="38"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R25" s="37"/>
       <c r="S25" s="37"/>
       <c r="T25" s="37"/>
@@ -2487,10 +2653,10 @@
         <v>20.0</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="32">
@@ -2499,33 +2665,41 @@
       </c>
       <c r="F26" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K26" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M26" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q26" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R26" s="37"/>
       <c r="S26" s="37"/>
       <c r="T26" s="37"/>
@@ -2542,45 +2716,53 @@
         <v>21.0</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K27" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M27" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="O27" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R27" s="37"/>
       <c r="S27" s="37"/>
       <c r="T27" s="37"/>
@@ -2597,10 +2779,10 @@
         <v>22.0</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="32">
@@ -2609,33 +2791,41 @@
       </c>
       <c r="F28" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K28" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L28" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M28" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R28" s="37"/>
       <c r="S28" s="37"/>
       <c r="T28" s="37"/>
@@ -2652,10 +2842,10 @@
         <v>23.0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="32">
@@ -2664,33 +2854,41 @@
       </c>
       <c r="F29" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L29" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M29" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q29" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R29" s="37"/>
       <c r="S29" s="37"/>
       <c r="T29" s="37"/>
@@ -2707,45 +2905,53 @@
         <v>24.0</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L30" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M30" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N30" s="38"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q30" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="R30" s="37"/>
       <c r="S30" s="37"/>
       <c r="T30" s="37"/>
@@ -2762,45 +2968,53 @@
         <v>25.0</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="32">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" s="32">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L31" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M31" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="R31" s="37"/>
       <c r="S31" s="37"/>
       <c r="T31" s="37"/>
@@ -2817,45 +3031,53 @@
         <v>26.0</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L32" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M32" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P32" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q32" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="R32" s="37"/>
       <c r="S32" s="37"/>
       <c r="T32" s="37"/>
@@ -2872,45 +3094,53 @@
         <v>27.0</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L33" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M33" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N33" s="32"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O33" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P33" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q33" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R33" s="37"/>
       <c r="S33" s="37"/>
       <c r="T33" s="37"/>
@@ -2927,10 +3157,10 @@
         <v>28.0</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="32">
@@ -2939,33 +3169,41 @@
       </c>
       <c r="F34" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K34" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M34" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P34" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R34" s="37"/>
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
@@ -2982,10 +3220,10 @@
         <v>29.0</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="32">
@@ -2994,33 +3232,41 @@
       </c>
       <c r="F35" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M35" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N35" s="32"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R35" s="37"/>
       <c r="S35" s="37"/>
       <c r="T35" s="37"/>
@@ -3037,45 +3283,53 @@
         <v>30.0</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F36" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L36" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M36" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N36" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P36" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q36" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R36" s="37"/>
       <c r="S36" s="37"/>
       <c r="T36" s="37"/>
@@ -3092,10 +3346,10 @@
         <v>31.0</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="32">
@@ -3104,33 +3358,41 @@
       </c>
       <c r="F37" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K37" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L37" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M37" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N37" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O37" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R37" s="37"/>
       <c r="S37" s="37"/>
       <c r="T37" s="37"/>
@@ -3147,10 +3409,10 @@
         <v>32.0</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="32">
@@ -3159,33 +3421,41 @@
       </c>
       <c r="F38" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K38" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L38" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M38" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N38" s="38"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N38" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q38" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R38" s="37"/>
       <c r="S38" s="37"/>
       <c r="T38" s="37"/>
@@ -3202,45 +3472,53 @@
         <v>33.0</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K39" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L39" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M39" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N39" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O39" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P39" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q39" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R39" s="37"/>
       <c r="S39" s="37"/>
       <c r="T39" s="37"/>
@@ -3257,10 +3535,10 @@
         <v>34.0</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="32">
@@ -3269,33 +3547,41 @@
       </c>
       <c r="F40" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K40" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L40" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M40" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N40" s="38"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N40" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P40" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q40" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R40" s="37"/>
       <c r="S40" s="37"/>
       <c r="T40" s="37"/>
@@ -3312,45 +3598,53 @@
         <v>35.0</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K41" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L41" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M41" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N41" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O41" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P41" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q41" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R41" s="37"/>
       <c r="S41" s="37"/>
       <c r="T41" s="37"/>
@@ -3367,45 +3661,53 @@
         <v>36.0</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L42" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M42" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N42" s="38"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="N42" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O42" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P42" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q42" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R42" s="37"/>
       <c r="S42" s="37"/>
       <c r="T42" s="37"/>
@@ -3422,10 +3724,10 @@
         <v>37.0</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="32">
@@ -3434,33 +3736,41 @@
       </c>
       <c r="F43" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K43" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L43" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M43" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N43" s="38"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O43" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q43" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R43" s="37"/>
       <c r="S43" s="37"/>
       <c r="T43" s="37"/>
@@ -3477,45 +3787,53 @@
         <v>38.0</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K44" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L44" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M44" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N44" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="O44" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P44" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q44" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R44" s="37"/>
       <c r="S44" s="37"/>
       <c r="T44" s="37"/>
@@ -3532,45 +3850,53 @@
         <v>39.0</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K45" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L45" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M45" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N45" s="38"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N45" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O45" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P45" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q45" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="R45" s="37"/>
       <c r="S45" s="37"/>
       <c r="T45" s="37"/>
@@ -3587,45 +3913,53 @@
         <v>40.0</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H46" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K46" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L46" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M46" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N46" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O46" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P46" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q46" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R46" s="37"/>
       <c r="S46" s="37"/>
       <c r="T46" s="37"/>
@@ -3642,10 +3976,10 @@
         <v>41.0</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="32">
@@ -3654,33 +3988,41 @@
       </c>
       <c r="F47" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K47" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L47" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M47" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N47" s="32"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N47" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O47" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P47" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q47" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R47" s="37"/>
       <c r="S47" s="37"/>
       <c r="T47" s="37"/>
@@ -3697,10 +4039,10 @@
         <v>42.0</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="32">
@@ -3709,33 +4051,41 @@
       </c>
       <c r="F48" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I48" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K48" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L48" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M48" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N48" s="32"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N48" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O48" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P48" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q48" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R48" s="37"/>
       <c r="S48" s="37"/>
       <c r="T48" s="37"/>
@@ -3752,45 +4102,53 @@
         <v>43.0</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H49" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L49" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M49" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N49" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O49" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P49" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q49" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R49" s="37"/>
       <c r="S49" s="37"/>
       <c r="T49" s="37"/>
@@ -3807,45 +4165,53 @@
         <v>44.0</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K50" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L50" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M50" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N50" s="38"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N50" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O50" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P50" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q50" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R50" s="37"/>
       <c r="S50" s="37"/>
       <c r="T50" s="37"/>
@@ -3862,45 +4228,53 @@
         <v>45.0</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K51" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L51" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M51" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N51" s="38"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N51" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O51" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P51" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q51" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R51" s="37"/>
       <c r="S51" s="37"/>
       <c r="T51" s="37"/>
@@ -3917,10 +4291,10 @@
         <v>46.0</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="32">
@@ -3929,33 +4303,41 @@
       </c>
       <c r="F52" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J52" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K52" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L52" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M52" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N52" s="38"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N52" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O52" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P52" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q52" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R52" s="37"/>
       <c r="S52" s="37"/>
       <c r="T52" s="37"/>
@@ -3972,10 +4354,10 @@
         <v>47.0</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="32">
@@ -3984,33 +4366,41 @@
       </c>
       <c r="F53" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I53" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K53" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L53" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M53" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N53" s="38"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N53" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O53" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P53" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q53" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R53" s="37"/>
       <c r="S53" s="37"/>
       <c r="T53" s="37"/>
@@ -4027,10 +4417,10 @@
         <v>48.0</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="32">
@@ -4039,33 +4429,41 @@
       </c>
       <c r="F54" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I54" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J54" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K54" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L54" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M54" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N54" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O54" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P54" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q54" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R54" s="37"/>
       <c r="S54" s="37"/>
       <c r="T54" s="37"/>
@@ -4082,10 +4480,10 @@
         <v>49.0</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="32">
@@ -4094,33 +4492,41 @@
       </c>
       <c r="F55" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H55" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I55" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J55" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K55" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L55" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M55" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N55" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O55" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P55" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q55" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R55" s="37"/>
       <c r="S55" s="37"/>
       <c r="T55" s="37"/>
@@ -4137,10 +4543,10 @@
         <v>50.0</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="32">
@@ -4149,33 +4555,41 @@
       </c>
       <c r="F56" s="32">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G56" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H56" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I56" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J56" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K56" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L56" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M56" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="N56" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O56" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P56" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q56" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R56" s="37"/>
       <c r="S56" s="37"/>
       <c r="T56" s="37"/>
@@ -4192,10 +4606,10 @@
         <v>51.0</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="32">
@@ -4204,33 +4618,41 @@
       </c>
       <c r="F57" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H57" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J57" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K57" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L57" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M57" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N57" s="32"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="N57" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O57" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P57" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q57" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R57" s="37"/>
       <c r="S57" s="37"/>
       <c r="T57" s="37"/>
@@ -4247,45 +4669,53 @@
         <v>52.0</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I58" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J58" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K58" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L58" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M58" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N58" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="O58" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P58" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q58" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R58" s="37"/>
       <c r="S58" s="37"/>
       <c r="T58" s="37"/>
@@ -4302,45 +4732,53 @@
         <v>53.0</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G59" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I59" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J59" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K59" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L59" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M59" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N59" s="32"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N59" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O59" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P59" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q59" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R59" s="37"/>
       <c r="S59" s="37"/>
       <c r="T59" s="37"/>
@@ -4357,45 +4795,53 @@
         <v>54.0</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I60" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J60" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K60" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L60" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M60" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N60" s="32"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="N60" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O60" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P60" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q60" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R60" s="37"/>
       <c r="S60" s="37"/>
       <c r="T60" s="37"/>
@@ -4411,46 +4857,54 @@
       <c r="A61" s="32">
         <v>55.0</v>
       </c>
-      <c r="B61" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="40" t="s">
-        <v>149</v>
+      <c r="B61" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>151</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G61" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I61" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J61" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K61" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L61" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M61" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N61" s="32"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="N61" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O61" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P61" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q61" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="R61" s="37"/>
       <c r="S61" s="37"/>
       <c r="T61" s="37"/>
@@ -4466,8 +4920,8 @@
       <c r="A62" s="32">
         <v>56.0</v>
       </c>
-      <c r="B62" s="39"/>
-      <c r="C62" s="40"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="39"/>
       <c r="D62" s="35"/>
       <c r="E62" s="32">
         <f t="shared" si="1"/>
@@ -4483,9 +4937,9 @@
       <c r="J62" s="36"/>
       <c r="K62" s="32"/>
       <c r="L62" s="32"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="32"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
       <c r="P62" s="32"/>
       <c r="Q62" s="37"/>
       <c r="R62" s="37"/>
@@ -4503,8 +4957,8 @@
       <c r="A63" s="32">
         <v>57.0</v>
       </c>
-      <c r="B63" s="39"/>
-      <c r="C63" s="40"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="35"/>
       <c r="E63" s="32">
         <f t="shared" si="1"/>
@@ -4514,7 +4968,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G63" s="38"/>
+      <c r="G63" s="40"/>
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
       <c r="J63" s="36"/>
@@ -4540,8 +4994,8 @@
       <c r="A64" s="32">
         <v>58.0</v>
       </c>
-      <c r="B64" s="39"/>
-      <c r="C64" s="40"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="39"/>
       <c r="D64" s="35"/>
       <c r="E64" s="32">
         <f t="shared" si="1"/>
@@ -4553,7 +5007,7 @@
       </c>
       <c r="G64" s="32"/>
       <c r="H64" s="32"/>
-      <c r="I64" s="38"/>
+      <c r="I64" s="40"/>
       <c r="J64" s="36"/>
       <c r="K64" s="32"/>
       <c r="L64" s="32"/>
@@ -4577,8 +5031,8 @@
       <c r="A65" s="32">
         <v>59.0</v>
       </c>
-      <c r="B65" s="39"/>
-      <c r="C65" s="40"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="35"/>
       <c r="E65" s="32">
         <f t="shared" si="1"/>
@@ -4593,11 +5047,11 @@
       <c r="I65" s="32"/>
       <c r="J65" s="36"/>
       <c r="K65" s="32"/>
-      <c r="L65" s="38"/>
+      <c r="L65" s="40"/>
       <c r="M65" s="32"/>
       <c r="N65" s="32"/>
       <c r="O65" s="32"/>
-      <c r="P65" s="38"/>
+      <c r="P65" s="40"/>
       <c r="Q65" s="37"/>
       <c r="R65" s="37"/>
       <c r="S65" s="37"/>
@@ -4614,8 +5068,8 @@
       <c r="A66" s="32">
         <v>60.0</v>
       </c>
-      <c r="B66" s="39"/>
-      <c r="C66" s="40"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="35"/>
       <c r="E66" s="32">
         <f t="shared" si="1"/>
@@ -4651,8 +5105,8 @@
       <c r="A67" s="32">
         <v>61.0</v>
       </c>
-      <c r="B67" s="39"/>
-      <c r="C67" s="40"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="39"/>
       <c r="D67" s="35"/>
       <c r="E67" s="32">
         <f t="shared" si="1"/>
@@ -4688,8 +5142,8 @@
       <c r="A68" s="32">
         <v>62.0</v>
       </c>
-      <c r="B68" s="39"/>
-      <c r="C68" s="40"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="39"/>
       <c r="D68" s="35"/>
       <c r="E68" s="32">
         <f t="shared" si="1"/>
@@ -4705,7 +5159,7 @@
       <c r="J68" s="36"/>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
-      <c r="M68" s="38"/>
+      <c r="M68" s="40"/>
       <c r="N68" s="32"/>
       <c r="O68" s="32"/>
       <c r="P68" s="32"/>
@@ -4725,8 +5179,8 @@
       <c r="A69" s="32">
         <v>63.0</v>
       </c>
-      <c r="B69" s="39"/>
-      <c r="C69" s="40"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="39"/>
       <c r="D69" s="35"/>
       <c r="E69" s="32">
         <f t="shared" si="1"/>
@@ -4738,7 +5192,7 @@
       </c>
       <c r="G69" s="32"/>
       <c r="H69" s="32"/>
-      <c r="I69" s="38"/>
+      <c r="I69" s="40"/>
       <c r="J69" s="32"/>
       <c r="K69" s="32"/>
       <c r="L69" s="32"/>
@@ -4762,8 +5216,8 @@
       <c r="A70" s="32">
         <v>64.0</v>
       </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="40"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="39"/>
       <c r="D70" s="35"/>
       <c r="E70" s="32">
         <f t="shared" si="1"/>
@@ -4773,14 +5227,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G70" s="38"/>
+      <c r="G70" s="40"/>
       <c r="H70" s="32"/>
       <c r="I70" s="32"/>
       <c r="J70" s="32"/>
       <c r="K70" s="32"/>
       <c r="L70" s="32"/>
       <c r="M70" s="32"/>
-      <c r="N70" s="38"/>
+      <c r="N70" s="40"/>
       <c r="O70" s="32"/>
       <c r="P70" s="32"/>
       <c r="Q70" s="37"/>
@@ -4799,8 +5253,8 @@
       <c r="A71" s="32">
         <v>65.0</v>
       </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="40"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="39"/>
       <c r="D71" s="35"/>
       <c r="E71" s="32">
         <f t="shared" si="1"/>
@@ -4816,8 +5270,8 @@
       <c r="J71" s="32"/>
       <c r="K71" s="32"/>
       <c r="L71" s="32"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
       <c r="O71" s="32"/>
       <c r="P71" s="32"/>
       <c r="Q71" s="37"/>
@@ -4836,8 +5290,8 @@
       <c r="A72" s="32">
         <v>66.0</v>
       </c>
-      <c r="B72" s="39"/>
-      <c r="C72" s="40"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="39"/>
       <c r="D72" s="35"/>
       <c r="E72" s="32">
         <f t="shared" si="1"/>
@@ -4850,9 +5304,9 @@
       <c r="G72" s="32"/>
       <c r="H72" s="32"/>
       <c r="I72" s="32"/>
-      <c r="J72" s="38"/>
+      <c r="J72" s="40"/>
       <c r="K72" s="32"/>
-      <c r="L72" s="38"/>
+      <c r="L72" s="40"/>
       <c r="M72" s="32"/>
       <c r="N72" s="32"/>
       <c r="O72" s="32"/>
@@ -4873,8 +5327,8 @@
       <c r="A73" s="32">
         <v>67.0</v>
       </c>
-      <c r="B73" s="39"/>
-      <c r="C73" s="40"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="39"/>
       <c r="D73" s="35"/>
       <c r="E73" s="32">
         <f t="shared" si="1"/>
@@ -4910,8 +5364,8 @@
       <c r="A74" s="32">
         <v>68.0</v>
       </c>
-      <c r="B74" s="39"/>
-      <c r="C74" s="40"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="39"/>
       <c r="D74" s="35"/>
       <c r="E74" s="32">
         <f t="shared" si="1"/>
@@ -4925,9 +5379,9 @@
       <c r="H74" s="32"/>
       <c r="I74" s="32"/>
       <c r="J74" s="32"/>
-      <c r="K74" s="38"/>
+      <c r="K74" s="40"/>
       <c r="L74" s="32"/>
-      <c r="M74" s="38"/>
+      <c r="M74" s="40"/>
       <c r="N74" s="32"/>
       <c r="O74" s="32"/>
       <c r="P74" s="32"/>
@@ -4947,8 +5401,8 @@
       <c r="A75" s="32">
         <v>69.0</v>
       </c>
-      <c r="B75" s="39"/>
-      <c r="C75" s="40"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="39"/>
       <c r="D75" s="35"/>
       <c r="E75" s="32">
         <f t="shared" si="1"/>
@@ -4959,13 +5413,13 @@
         <v>0</v>
       </c>
       <c r="G75" s="32"/>
-      <c r="H75" s="38"/>
+      <c r="H75" s="40"/>
       <c r="I75" s="32"/>
       <c r="J75" s="32"/>
       <c r="K75" s="32"/>
       <c r="L75" s="32"/>
       <c r="M75" s="32"/>
-      <c r="N75" s="38"/>
+      <c r="N75" s="40"/>
       <c r="O75" s="32"/>
       <c r="P75" s="32"/>
       <c r="Q75" s="37"/>
@@ -4984,8 +5438,8 @@
       <c r="A76" s="32">
         <v>70.0</v>
       </c>
-      <c r="B76" s="39"/>
-      <c r="C76" s="40"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="39"/>
       <c r="D76" s="35"/>
       <c r="E76" s="32">
         <f t="shared" si="1"/>
@@ -4997,14 +5451,14 @@
       </c>
       <c r="G76" s="32"/>
       <c r="H76" s="32"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
       <c r="K76" s="32"/>
       <c r="L76" s="32"/>
       <c r="M76" s="32"/>
       <c r="N76" s="32"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
       <c r="Q76" s="37"/>
       <c r="R76" s="37"/>
       <c r="S76" s="37"/>
@@ -5021,8 +5475,8 @@
       <c r="A77" s="32">
         <v>71.0</v>
       </c>
-      <c r="B77" s="39"/>
-      <c r="C77" s="40"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="35"/>
       <c r="E77" s="32">
         <f t="shared" si="1"/>
@@ -5032,14 +5486,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G77" s="38"/>
+      <c r="G77" s="40"/>
       <c r="H77" s="32"/>
       <c r="I77" s="32"/>
       <c r="J77" s="32"/>
       <c r="K77" s="32"/>
       <c r="L77" s="32"/>
       <c r="M77" s="32"/>
-      <c r="N77" s="38"/>
+      <c r="N77" s="40"/>
       <c r="O77" s="32"/>
       <c r="P77" s="32"/>
       <c r="Q77" s="37"/>
@@ -5058,8 +5512,8 @@
       <c r="A78" s="32">
         <v>72.0</v>
       </c>
-      <c r="B78" s="39"/>
-      <c r="C78" s="40"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="35"/>
       <c r="E78" s="32">
         <f t="shared" si="1"/>
@@ -5070,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="32"/>
-      <c r="H78" s="38"/>
+      <c r="H78" s="40"/>
       <c r="I78" s="32"/>
       <c r="J78" s="32"/>
       <c r="K78" s="32"/>
@@ -5078,7 +5532,7 @@
       <c r="M78" s="32"/>
       <c r="N78" s="32"/>
       <c r="O78" s="32"/>
-      <c r="P78" s="38"/>
+      <c r="P78" s="40"/>
       <c r="Q78" s="37"/>
       <c r="R78" s="37"/>
       <c r="S78" s="37"/>
@@ -5095,8 +5549,8 @@
       <c r="A79" s="32">
         <v>73.0</v>
       </c>
-      <c r="B79" s="39"/>
-      <c r="C79" s="40"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="39"/>
       <c r="D79" s="35"/>
       <c r="E79" s="32">
         <f t="shared" si="1"/>
@@ -5111,8 +5565,8 @@
       <c r="I79" s="32"/>
       <c r="J79" s="32"/>
       <c r="K79" s="32"/>
-      <c r="L79" s="38"/>
-      <c r="M79" s="38"/>
+      <c r="L79" s="40"/>
+      <c r="M79" s="40"/>
       <c r="N79" s="32"/>
       <c r="O79" s="32"/>
       <c r="P79" s="32"/>
@@ -5132,8 +5586,8 @@
       <c r="A80" s="32">
         <v>74.0</v>
       </c>
-      <c r="B80" s="39"/>
-      <c r="C80" s="40"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="39"/>
       <c r="D80" s="35"/>
       <c r="E80" s="32">
         <f t="shared" si="1"/>
@@ -5143,8 +5597,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
       <c r="I80" s="32"/>
       <c r="J80" s="32"/>
       <c r="K80" s="32"/>
@@ -5152,7 +5606,7 @@
       <c r="M80" s="32"/>
       <c r="N80" s="32"/>
       <c r="O80" s="32"/>
-      <c r="P80" s="38"/>
+      <c r="P80" s="40"/>
       <c r="Q80" s="37"/>
       <c r="R80" s="37"/>
       <c r="S80" s="37"/>
@@ -5169,8 +5623,8 @@
       <c r="A81" s="32">
         <v>75.0</v>
       </c>
-      <c r="B81" s="39"/>
-      <c r="C81" s="40"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="39"/>
       <c r="D81" s="35"/>
       <c r="E81" s="32">
         <f t="shared" si="1"/>
@@ -5183,8 +5637,8 @@
       <c r="G81" s="32"/>
       <c r="H81" s="32"/>
       <c r="I81" s="32"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
       <c r="L81" s="32"/>
       <c r="M81" s="32"/>
       <c r="N81" s="32"/>
@@ -5206,8 +5660,8 @@
       <c r="A82" s="32">
         <v>76.0</v>
       </c>
-      <c r="B82" s="39"/>
-      <c r="C82" s="40"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="39"/>
       <c r="D82" s="35"/>
       <c r="E82" s="32">
         <f t="shared" si="1"/>
@@ -5220,9 +5674,9 @@
       <c r="G82" s="32"/>
       <c r="H82" s="32"/>
       <c r="I82" s="32"/>
-      <c r="J82" s="38"/>
+      <c r="J82" s="40"/>
       <c r="K82" s="32"/>
-      <c r="L82" s="38"/>
+      <c r="L82" s="40"/>
       <c r="M82" s="32"/>
       <c r="N82" s="32"/>
       <c r="O82" s="32"/>
@@ -5243,8 +5697,8 @@
       <c r="A83" s="32">
         <v>77.0</v>
       </c>
-      <c r="B83" s="39"/>
-      <c r="C83" s="40"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="39"/>
       <c r="D83" s="35"/>
       <c r="E83" s="32">
         <f t="shared" si="1"/>
@@ -5259,8 +5713,8 @@
       <c r="I83" s="32"/>
       <c r="J83" s="32"/>
       <c r="K83" s="32"/>
-      <c r="L83" s="38"/>
-      <c r="M83" s="38"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
       <c r="N83" s="32"/>
       <c r="O83" s="32"/>
       <c r="P83" s="32"/>
@@ -5280,8 +5734,8 @@
       <c r="A84" s="32">
         <v>78.0</v>
       </c>
-      <c r="B84" s="39"/>
-      <c r="C84" s="40"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="39"/>
       <c r="D84" s="35"/>
       <c r="E84" s="32">
         <f t="shared" si="1"/>
@@ -5293,12 +5747,12 @@
       </c>
       <c r="G84" s="32"/>
       <c r="H84" s="32"/>
-      <c r="I84" s="38"/>
+      <c r="I84" s="40"/>
       <c r="J84" s="32"/>
       <c r="K84" s="32"/>
       <c r="L84" s="32"/>
       <c r="M84" s="32"/>
-      <c r="N84" s="38"/>
+      <c r="N84" s="40"/>
       <c r="O84" s="32"/>
       <c r="P84" s="32"/>
       <c r="Q84" s="37"/>
@@ -5317,8 +5771,8 @@
       <c r="A85" s="32">
         <v>79.0</v>
       </c>
-      <c r="B85" s="39"/>
-      <c r="C85" s="40"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="39"/>
       <c r="D85" s="35"/>
       <c r="E85" s="32">
         <f t="shared" si="1"/>
@@ -5333,9 +5787,9 @@
       <c r="I85" s="32"/>
       <c r="J85" s="32"/>
       <c r="K85" s="32"/>
-      <c r="L85" s="38"/>
+      <c r="L85" s="40"/>
       <c r="M85" s="32"/>
-      <c r="N85" s="38"/>
+      <c r="N85" s="40"/>
       <c r="O85" s="32"/>
       <c r="P85" s="32"/>
       <c r="Q85" s="37"/>
@@ -12084,12 +12538,12 @@
   <mergeCells count="1">
     <mergeCell ref="G4:U4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G7:I61 M7:M61">
+  <conditionalFormatting sqref="G7:I61 M7:M61 N7:O62 P7:Q61">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:P91">
+  <conditionalFormatting sqref="G7:P91 Q7:Q61">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>

--- a/attendance-files/CHW/CHW Attendance.xlsx
+++ b/attendance-files/CHW/CHW Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="153">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>18/8/25</t>
+  </si>
+  <si>
+    <t>21/8/25</t>
   </si>
   <si>
     <t>S.No.</t>
@@ -1369,7 +1372,9 @@
       <c r="Q5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="28"/>
+      <c r="R5" s="27" t="s">
+        <v>19</v>
+      </c>
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
@@ -1382,67 +1387,67 @@
     </row>
     <row r="6" ht="42.75" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R6" s="30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T6" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U6" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V6" s="31"/>
       <c r="W6" s="8"/>
@@ -1456,10 +1461,10 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="32">
@@ -1468,42 +1473,44 @@
       </c>
       <c r="F7" s="32">
         <f t="shared" ref="F7:F91" si="2">COUNTIF(G7:U7,"P")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N7" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O7" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S7" s="37"/>
       <c r="T7" s="37"/>
       <c r="U7" s="37"/>
@@ -1519,10 +1526,10 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="32">
@@ -1531,42 +1538,44 @@
       </c>
       <c r="F8" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O8" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R8" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S8" s="37"/>
       <c r="T8" s="37"/>
       <c r="U8" s="37"/>
@@ -1582,10 +1591,10 @@
         <v>3.0</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="32">
@@ -1594,42 +1603,44 @@
       </c>
       <c r="F9" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N9" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O9" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
       <c r="U9" s="37"/>
@@ -1645,10 +1656,10 @@
         <v>4.0</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="32">
@@ -1657,42 +1668,44 @@
       </c>
       <c r="F10" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N10" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O10" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
       <c r="U10" s="37"/>
@@ -1708,10 +1721,10 @@
         <v>5.0</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="32">
@@ -1720,42 +1733,44 @@
       </c>
       <c r="F11" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N11" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O11" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R11" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
       <c r="U11" s="37"/>
@@ -1771,54 +1786,56 @@
         <v>6.0</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="32">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="32">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N12" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O12" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q12" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R12" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
       <c r="U12" s="37"/>
@@ -1834,10 +1851,10 @@
         <v>7.0</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="32">
@@ -1846,42 +1863,44 @@
       </c>
       <c r="F13" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N13" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O13" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R13" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S13" s="37"/>
       <c r="T13" s="37"/>
       <c r="U13" s="37"/>
@@ -1897,54 +1916,56 @@
         <v>8.0</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="32">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="32">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N14" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P14" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R14" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R14" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="S14" s="37"/>
       <c r="T14" s="37"/>
       <c r="U14" s="37"/>
@@ -1960,10 +1981,10 @@
         <v>9.0</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="32">
@@ -1972,42 +1993,44 @@
       </c>
       <c r="F15" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N15" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R15" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R15" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
       <c r="U15" s="37"/>
@@ -2023,10 +2046,10 @@
         <v>10.0</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="32">
@@ -2035,42 +2058,44 @@
       </c>
       <c r="F16" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N16" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O16" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P16" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R16" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R16" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
       <c r="U16" s="37"/>
@@ -2086,10 +2111,10 @@
         <v>11.0</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="32">
@@ -2098,42 +2123,44 @@
       </c>
       <c r="F17" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M17" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N17" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O17" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R17" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
       <c r="U17" s="37"/>
@@ -2149,54 +2176,56 @@
         <v>12.0</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="32">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M18" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N18" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O18" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P18" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R18" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
       <c r="U18" s="37"/>
@@ -2212,10 +2241,10 @@
         <v>13.0</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="32">
@@ -2224,42 +2253,44 @@
       </c>
       <c r="F19" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M19" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N19" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O19" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P19" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q19" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R19" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R19" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S19" s="37"/>
       <c r="T19" s="37"/>
       <c r="U19" s="37"/>
@@ -2275,10 +2306,10 @@
         <v>14.0</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="32">
@@ -2287,42 +2318,44 @@
       </c>
       <c r="F20" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L20" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N20" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O20" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P20" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q20" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R20" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S20" s="37"/>
       <c r="T20" s="37"/>
       <c r="U20" s="37"/>
@@ -2338,10 +2371,10 @@
         <v>15.0</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="32">
@@ -2350,42 +2383,44 @@
       </c>
       <c r="F21" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L21" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N21" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O21" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R21" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S21" s="37"/>
       <c r="T21" s="37"/>
       <c r="U21" s="37"/>
@@ -2401,10 +2436,10 @@
         <v>16.0</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="32">
@@ -2413,42 +2448,44 @@
       </c>
       <c r="F22" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N22" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O22" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P22" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="R22" s="37"/>
+        <v>44</v>
+      </c>
+      <c r="R22" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S22" s="37"/>
       <c r="T22" s="37"/>
       <c r="U22" s="37"/>
@@ -2464,10 +2501,10 @@
         <v>17.0</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="32">
@@ -2476,42 +2513,44 @@
       </c>
       <c r="F23" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L23" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M23" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N23" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O23" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P23" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q23" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R23" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R23" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S23" s="37"/>
       <c r="T23" s="37"/>
       <c r="U23" s="37"/>
@@ -2527,54 +2566,56 @@
         <v>18.0</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="32">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L24" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M24" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N24" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O24" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P24" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q24" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="R24" s="37"/>
+        <v>44</v>
+      </c>
+      <c r="R24" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="S24" s="37"/>
       <c r="T24" s="37"/>
       <c r="U24" s="37"/>
@@ -2590,10 +2631,10 @@
         <v>19.0</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="32">
@@ -2602,42 +2643,44 @@
       </c>
       <c r="F25" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L25" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M25" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N25" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O25" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P25" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q25" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R25" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R25" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S25" s="37"/>
       <c r="T25" s="37"/>
       <c r="U25" s="37"/>
@@ -2653,10 +2696,10 @@
         <v>20.0</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="32">
@@ -2665,42 +2708,44 @@
       </c>
       <c r="F26" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K26" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M26" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N26" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O26" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P26" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R26" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R26" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S26" s="37"/>
       <c r="T26" s="37"/>
       <c r="U26" s="37"/>
@@ -2716,10 +2761,10 @@
         <v>21.0</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="32">
@@ -2728,42 +2773,44 @@
       </c>
       <c r="F27" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M27" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N27" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O27" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P27" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R27" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R27" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S27" s="37"/>
       <c r="T27" s="37"/>
       <c r="U27" s="37"/>
@@ -2779,54 +2826,56 @@
         <v>22.0</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="32">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L28" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M28" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O28" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P28" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q28" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R28" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R28" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="S28" s="37"/>
       <c r="T28" s="37"/>
       <c r="U28" s="37"/>
@@ -2842,10 +2891,10 @@
         <v>23.0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="32">
@@ -2854,42 +2903,44 @@
       </c>
       <c r="F29" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L29" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M29" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N29" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O29" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P29" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q29" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R29" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R29" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S29" s="37"/>
       <c r="T29" s="37"/>
       <c r="U29" s="37"/>
@@ -2905,10 +2956,10 @@
         <v>24.0</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="32">
@@ -2917,42 +2968,44 @@
       </c>
       <c r="F30" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L30" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M30" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N30" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O30" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P30" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q30" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="R30" s="37"/>
+        <v>44</v>
+      </c>
+      <c r="R30" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S30" s="37"/>
       <c r="T30" s="37"/>
       <c r="U30" s="37"/>
@@ -2968,10 +3021,10 @@
         <v>25.0</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="32">
@@ -2980,42 +3033,44 @@
       </c>
       <c r="F31" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L31" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M31" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N31" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O31" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P31" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q31" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="R31" s="37"/>
+        <v>44</v>
+      </c>
+      <c r="R31" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S31" s="37"/>
       <c r="T31" s="37"/>
       <c r="U31" s="37"/>
@@ -3031,54 +3086,56 @@
         <v>26.0</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="32">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L32" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M32" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O32" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P32" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q32" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="R32" s="37"/>
+        <v>44</v>
+      </c>
+      <c r="R32" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="S32" s="37"/>
       <c r="T32" s="37"/>
       <c r="U32" s="37"/>
@@ -3094,10 +3151,10 @@
         <v>27.0</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="32">
@@ -3106,42 +3163,44 @@
       </c>
       <c r="F33" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L33" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M33" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N33" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O33" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P33" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R33" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R33" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S33" s="37"/>
       <c r="T33" s="37"/>
       <c r="U33" s="37"/>
@@ -3157,10 +3216,10 @@
         <v>28.0</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="32">
@@ -3169,42 +3228,44 @@
       </c>
       <c r="F34" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M34" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N34" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O34" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P34" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R34" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R34" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
       <c r="U34" s="37"/>
@@ -3220,54 +3281,56 @@
         <v>29.0</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="32">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M35" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N35" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O35" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P35" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q35" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R35" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R35" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="S35" s="37"/>
       <c r="T35" s="37"/>
       <c r="U35" s="37"/>
@@ -3283,10 +3346,10 @@
         <v>30.0</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="32">
@@ -3295,42 +3358,44 @@
       </c>
       <c r="F36" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L36" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M36" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N36" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O36" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P36" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q36" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R36" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R36" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S36" s="37"/>
       <c r="T36" s="37"/>
       <c r="U36" s="37"/>
@@ -3346,10 +3411,10 @@
         <v>31.0</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="32">
@@ -3358,42 +3423,44 @@
       </c>
       <c r="F37" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K37" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L37" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M37" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N37" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O37" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P37" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q37" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R37" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R37" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S37" s="37"/>
       <c r="T37" s="37"/>
       <c r="U37" s="37"/>
@@ -3409,10 +3476,10 @@
         <v>32.0</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="32">
@@ -3421,42 +3488,44 @@
       </c>
       <c r="F38" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K38" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L38" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M38" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N38" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O38" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P38" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q38" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R38" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R38" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S38" s="37"/>
       <c r="T38" s="37"/>
       <c r="U38" s="37"/>
@@ -3472,10 +3541,10 @@
         <v>33.0</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="32">
@@ -3484,42 +3553,44 @@
       </c>
       <c r="F39" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K39" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L39" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M39" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N39" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O39" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P39" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q39" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R39" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R39" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S39" s="37"/>
       <c r="T39" s="37"/>
       <c r="U39" s="37"/>
@@ -3535,10 +3606,10 @@
         <v>34.0</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="32">
@@ -3547,42 +3618,44 @@
       </c>
       <c r="F40" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K40" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L40" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M40" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N40" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O40" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P40" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q40" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R40" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R40" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S40" s="37"/>
       <c r="T40" s="37"/>
       <c r="U40" s="37"/>
@@ -3598,10 +3671,10 @@
         <v>35.0</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="32">
@@ -3610,42 +3683,44 @@
       </c>
       <c r="F41" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K41" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L41" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M41" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N41" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O41" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P41" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q41" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R41" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R41" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S41" s="37"/>
       <c r="T41" s="37"/>
       <c r="U41" s="37"/>
@@ -3661,10 +3736,10 @@
         <v>36.0</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="32">
@@ -3673,42 +3748,44 @@
       </c>
       <c r="F42" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L42" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M42" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N42" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O42" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P42" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q42" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R42" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R42" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S42" s="37"/>
       <c r="T42" s="37"/>
       <c r="U42" s="37"/>
@@ -3724,10 +3801,10 @@
         <v>37.0</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="32">
@@ -3736,42 +3813,44 @@
       </c>
       <c r="F43" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K43" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L43" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M43" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N43" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O43" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P43" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q43" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R43" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R43" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S43" s="37"/>
       <c r="T43" s="37"/>
       <c r="U43" s="37"/>
@@ -3787,10 +3866,10 @@
         <v>38.0</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="32">
@@ -3799,42 +3878,44 @@
       </c>
       <c r="F44" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K44" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L44" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M44" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N44" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O44" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P44" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q44" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R44" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R44" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S44" s="37"/>
       <c r="T44" s="37"/>
       <c r="U44" s="37"/>
@@ -3850,10 +3931,10 @@
         <v>39.0</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="32">
@@ -3862,42 +3943,44 @@
       </c>
       <c r="F45" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L45" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M45" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N45" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O45" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P45" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q45" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="R45" s="37"/>
+        <v>44</v>
+      </c>
+      <c r="R45" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S45" s="37"/>
       <c r="T45" s="37"/>
       <c r="U45" s="37"/>
@@ -3913,10 +3996,10 @@
         <v>40.0</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="32">
@@ -3925,42 +4008,44 @@
       </c>
       <c r="F46" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H46" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K46" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L46" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M46" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N46" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O46" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P46" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q46" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R46" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R46" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S46" s="37"/>
       <c r="T46" s="37"/>
       <c r="U46" s="37"/>
@@ -3976,10 +4061,10 @@
         <v>41.0</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="32">
@@ -3988,42 +4073,44 @@
       </c>
       <c r="F47" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K47" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L47" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M47" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N47" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O47" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P47" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q47" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R47" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R47" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S47" s="37"/>
       <c r="T47" s="37"/>
       <c r="U47" s="37"/>
@@ -4039,10 +4126,10 @@
         <v>42.0</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="32">
@@ -4051,42 +4138,44 @@
       </c>
       <c r="F48" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I48" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K48" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L48" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M48" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N48" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O48" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P48" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q48" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R48" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R48" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S48" s="37"/>
       <c r="T48" s="37"/>
       <c r="U48" s="37"/>
@@ -4102,10 +4191,10 @@
         <v>43.0</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="32">
@@ -4114,42 +4203,44 @@
       </c>
       <c r="F49" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H49" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L49" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M49" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N49" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O49" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P49" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q49" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R49" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R49" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S49" s="37"/>
       <c r="T49" s="37"/>
       <c r="U49" s="37"/>
@@ -4165,10 +4256,10 @@
         <v>44.0</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="32">
@@ -4177,42 +4268,44 @@
       </c>
       <c r="F50" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L50" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M50" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N50" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O50" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P50" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q50" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R50" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R50" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S50" s="37"/>
       <c r="T50" s="37"/>
       <c r="U50" s="37"/>
@@ -4228,10 +4321,10 @@
         <v>45.0</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="32">
@@ -4240,42 +4333,44 @@
       </c>
       <c r="F51" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L51" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M51" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N51" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O51" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P51" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q51" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R51" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R51" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S51" s="37"/>
       <c r="T51" s="37"/>
       <c r="U51" s="37"/>
@@ -4291,10 +4386,10 @@
         <v>46.0</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="32">
@@ -4303,42 +4398,44 @@
       </c>
       <c r="F52" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J52" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K52" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L52" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M52" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N52" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O52" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P52" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q52" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R52" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R52" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S52" s="37"/>
       <c r="T52" s="37"/>
       <c r="U52" s="37"/>
@@ -4354,10 +4451,10 @@
         <v>47.0</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="32">
@@ -4366,42 +4463,44 @@
       </c>
       <c r="F53" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I53" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K53" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L53" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M53" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N53" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O53" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P53" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q53" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R53" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R53" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S53" s="37"/>
       <c r="T53" s="37"/>
       <c r="U53" s="37"/>
@@ -4417,54 +4516,56 @@
         <v>48.0</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="32">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I54" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J54" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K54" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L54" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M54" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N54" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O54" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P54" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q54" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R54" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R54" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="S54" s="37"/>
       <c r="T54" s="37"/>
       <c r="U54" s="37"/>
@@ -4480,10 +4581,10 @@
         <v>49.0</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="32">
@@ -4492,42 +4593,44 @@
       </c>
       <c r="F55" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H55" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I55" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J55" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K55" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L55" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M55" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N55" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O55" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P55" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q55" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R55" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R55" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S55" s="37"/>
       <c r="T55" s="37"/>
       <c r="U55" s="37"/>
@@ -4543,54 +4646,56 @@
         <v>50.0</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="32">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56" s="32">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G56" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I56" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J56" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K56" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L56" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M56" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N56" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O56" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P56" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q56" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R56" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R56" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="S56" s="37"/>
       <c r="T56" s="37"/>
       <c r="U56" s="37"/>
@@ -4606,10 +4711,10 @@
         <v>51.0</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="32">
@@ -4618,42 +4723,44 @@
       </c>
       <c r="F57" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H57" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J57" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K57" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L57" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M57" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N57" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O57" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P57" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q57" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R57" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R57" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S57" s="37"/>
       <c r="T57" s="37"/>
       <c r="U57" s="37"/>
@@ -4669,10 +4776,10 @@
         <v>52.0</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="32">
@@ -4681,42 +4788,44 @@
       </c>
       <c r="F58" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I58" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J58" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K58" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L58" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M58" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N58" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O58" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P58" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q58" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R58" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R58" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S58" s="37"/>
       <c r="T58" s="37"/>
       <c r="U58" s="37"/>
@@ -4732,54 +4841,56 @@
         <v>53.0</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="32">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G59" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I59" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J59" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K59" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L59" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M59" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N59" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O59" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P59" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q59" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R59" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R59" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="S59" s="37"/>
       <c r="T59" s="37"/>
       <c r="U59" s="37"/>
@@ -4795,10 +4906,10 @@
         <v>54.0</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="32">
@@ -4807,42 +4918,44 @@
       </c>
       <c r="F60" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I60" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J60" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K60" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L60" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M60" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N60" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O60" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P60" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q60" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R60" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R60" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S60" s="37"/>
       <c r="T60" s="37"/>
       <c r="U60" s="37"/>
@@ -4858,10 +4971,10 @@
         <v>55.0</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="32">
@@ -4870,42 +4983,44 @@
       </c>
       <c r="F61" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G61" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I61" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J61" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L61" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M61" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N61" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O61" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P61" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q61" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R61" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="R61" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="S61" s="37"/>
       <c r="T61" s="37"/>
       <c r="U61" s="37"/>
@@ -4942,7 +5057,7 @@
       <c r="O62" s="36"/>
       <c r="P62" s="32"/>
       <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
+      <c r="R62" s="36"/>
       <c r="S62" s="37"/>
       <c r="T62" s="37"/>
       <c r="U62" s="37"/>
@@ -12538,12 +12653,12 @@
   <mergeCells count="1">
     <mergeCell ref="G4:U4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G7:I61 M7:M61 N7:O62 P7:Q61">
+  <conditionalFormatting sqref="G7:I61 M7:M61 N7:O62 P7:Q61 R7:R62">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:P91 Q7:Q61">
+  <conditionalFormatting sqref="G7:P91 Q7:Q61 R7:R62">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>
